--- a/ExcelSheet/login.xlsx
+++ b/ExcelSheet/login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\eclipse-workspace\Amazon_Project_Gtm\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5ACCF4-B79D-4EE1-951C-CEEB7110EF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1194998A-93D6-4949-8BF9-AEF4B57447B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BC4EE1F9-43E8-4C05-BBDC-587267F24649}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC4EE1F9-43E8-4C05-BBDC-587267F24649}"/>
   </bookViews>
   <sheets>
     <sheet name="loginsheet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Ab@123</t>
+  </si>
+  <si>
+    <t>9409044218</t>
   </si>
 </sst>
 </file>
@@ -100,10 +103,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -423,18 +427,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0880509-A4A1-474A-A3CD-B5109BEDFD8F}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -442,15 +446,15 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>9409044218</v>
+      <c r="A2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>9409044218</v>
       </c>
       <c r="B3" t="s">
@@ -459,7 +463,7 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>7753422</v>
       </c>
     </row>
@@ -476,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC475ABE-3516-42C4-8565-960FCA5B1913}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
